--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,112 +369,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Study.Title.O</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Authors.O</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Volume.O</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Number.of.Authors.O</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>1st.author.O</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Citation.Count.1st.author.O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Senior.author.O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.senior.author.O</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.paper.O</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.1st.author.O</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.senior.author.O</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Surprising.result.O</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Exciting.result.O</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>N.O</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Reported.P.value.O</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Effect.size.O</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>P.value.R</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Direction.R</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>O.within.CI.R</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Meta.analysis.significant</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue.label</t>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Fold_Id</t>
         </is>
       </c>
     </row>
@@ -482,990 +487,1023 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Tracing attention and the activation flow in spoken word planning using eye movements.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.353</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A Roelofs</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>34</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8005</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8005</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>46</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.52</v>
       </c>
       <c r="M2" t="n">
         <v>2.52</v>
       </c>
       <c r="N2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.75</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>24</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.02</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.354</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.435</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Now you see it, now you don't: repetition blindness for nonwords</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.146</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>AL Morris, ML Still</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>34</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>240</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>240</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.27</v>
       </c>
       <c r="M3" t="n">
         <v>3.27</v>
       </c>
       <c r="N3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.28</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>2.86</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>24</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.0025</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.374</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.269</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Working memory costs of task switching.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.478</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B Liefooghe, P Barrouillet, A Vandierendonck, V Camos</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>34</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liefooghe</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1737</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Vandierendonck</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>3191</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.57</v>
       </c>
       <c r="M4" t="n">
         <v>2.57</v>
       </c>
       <c r="N4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O4" t="n">
         <v>2.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>25</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.025</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.181</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.229</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Accelerated relearning after retrieval-induced forgetting: The benefit of being forgotten.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.230</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>BC Storm, EL Bjork, RA Bjork</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Storm</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>763</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Bjork</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>16509</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.16</v>
       </c>
       <c r="M5" t="n">
         <v>5.16</v>
       </c>
       <c r="N5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>240</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.052</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>A single-system account of the relationship between priming, recognition, and fluency.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.97</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>CJ Berry, DR Shanks, RN Henson</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>34</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Berry</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>232</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Henson</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>22335</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>37</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4.13</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>2.12</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>3.66</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>4.33</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>24</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.002</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.724</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.023</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Modeling distributions of immediate memory effects: No strategies needed?</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.219</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>CP Beaman, I Neath, AM Surprenant</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1024</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1024</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.22</v>
       </c>
       <c r="M7" t="n">
         <v>2.22</v>
       </c>
       <c r="N7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.33</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.67</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>100</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.025</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>1.02</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.314</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Stereotypes and retrieval-provoked illusory source recollections.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.460</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>CS Dodson, J Darragh, A Williams</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>34</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>1967</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1967</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.36</v>
       </c>
       <c r="M8" t="n">
         <v>4.36</v>
       </c>
       <c r="N8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>3.75</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>39</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.32</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.54</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Across-notation automatic numerical processing.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.430</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>D Ganor-Stern, J Tzelgov</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>34</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ganor-Stern</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>486</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Tzelgov</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3059</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>51</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.28</v>
       </c>
       <c r="N9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O9" t="n">
         <v>2.4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>32</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.488</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.001</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Attractor dynamics and semantic neighborhood density: Processing is slowed by near neighbors and speeded by distant neighbors.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.65</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>D Mirman, JS Magnuson</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>34</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Mirman</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1002</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Magnuson</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>3289</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>56</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.16</v>
       </c>
       <c r="M10" t="n">
         <v>3.16</v>
       </c>
       <c r="N10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.7</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>3.2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>22</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.452</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.008</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The Stroop effect: Why proportion congruent has nothing to do with congruency and everything to do with contingency.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.514</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>JR Schmidt, D Besner</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>34</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Schmidt</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>409</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>11136</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>92</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.98</v>
       </c>
       <c r="M11" t="n">
         <v>2.98</v>
       </c>
       <c r="N11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>3.33</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>95</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.028</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.198</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>18</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>How to say no: Single-and dual-process theories of short-term recognition tested on negative probes.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.439</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>K Oberauer</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>34</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>5974</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>5974</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.69</v>
       </c>
       <c r="M12" t="n">
         <v>2.69</v>
       </c>
       <c r="N12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O12" t="n">
         <v>2.67</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>32</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.31</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Intentional forgetting is easier after two ""shots"" than one.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.408</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>L Sahakyan, PF Delaney, ER Waldum</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>34</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>791</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>299</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>21</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.84</v>
       </c>
       <c r="M13" t="n">
         <v>2.84</v>
       </c>
       <c r="N13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O13" t="n">
         <v>3.17</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>3.67</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>96</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.025</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.05</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.84</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1473,331 +1511,343 @@
       <c r="W13" t="n">
         <v>0</v>
       </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>22</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Priming addition facts with semantic relations.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.343</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>M Bassok, SF Pedigo, AT Oskarsson</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>34</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>5489</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5489</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>50</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.04</v>
       </c>
       <c r="M14" t="n">
         <v>4.04</v>
       </c>
       <c r="N14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O14" t="n">
         <v>4</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>2.67</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>154</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.045</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
       <c r="V14" t="n">
         <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Contextual effects on reading aloud: Evidence for pathway control.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.50</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>M Reynolds, D Besner</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>34</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Reynolds</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>462</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>11136</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>16</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>1.87</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>2.98</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>2.75</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>3.25</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>0.15</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.026</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.17</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>25</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>On the additive effects of stimulus quality and word frequency in lexical decision: Evidence for opposing interactive influences revealed by RT distributional analyses.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.495</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>MJ Yap, DA Balota, CS Tse, D Besner</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>34</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Yap</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>2514</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Balota</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>16500</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.61</v>
       </c>
       <c r="M16" t="n">
         <v>3.61</v>
       </c>
       <c r="N16" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O16" t="n">
         <v>2.5</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>2.33</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>32</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>0.03</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>0.143</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.001</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>26</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Semantic interference in a delayed naming task: Evidence for the response exclusion hypothesis.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.249</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>N Janssen, W Schirm, BZ Mahon, A Caramazza</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>34</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>567</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>25000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>72</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.74</v>
       </c>
       <c r="M17" t="n">
         <v>6.74</v>
       </c>
       <c r="N17" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
       <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
         <v>32</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.03</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.74</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.33</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1805,580 +1855,601 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>27</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Multidimensional visual statistical learning.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.399</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>NB Turk-Browne, PJ Isola, BJ Scholl, TA Treat</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>34</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Turk-Brown</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1740</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Scholl</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>6204</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>61</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.56</v>
       </c>
       <c r="M18" t="n">
         <v>6.56</v>
       </c>
       <c r="N18" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O18" t="n">
         <v>2.25</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3.25</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>8</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.023</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.09</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.002</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Accounting for occurrences: A new view of the use of contingency information in causal judgment.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.204</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>PA White</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>34</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1472</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>1472</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>11</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.07</v>
       </c>
       <c r="M19" t="n">
         <v>3.07</v>
       </c>
       <c r="N19" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>2.33</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>37</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.427</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.002</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
       <c r="V19" t="n">
         <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Multiple roles for time in short-term memory: Evidence from serial recall of order and timing.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.128</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>S Farrell</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>34</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>1830</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>1830</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>27</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.69</v>
       </c>
       <c r="M20" t="n">
         <v>2.69</v>
       </c>
       <c r="N20" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.5</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>4.33</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>40</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.001</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.6</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.044</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
       <c r="V20" t="n">
         <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>An attention-based associative account of adjacent and nonadjacent dependency learning.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.80</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>S Pacton, P Perruchet</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>34</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Pacton</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1341</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Perruchet</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>5255</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>72</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>2.25</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1.65</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>3</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3.5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>24</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>0.005</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.51</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.00048</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>35</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Orienting attention in visual working memory reduces interference from memory probes.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.369</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>T Makovski, R Sussman, YV Jiang</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>34</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Makovski</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>578</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Jiang</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>6598</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>116</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.74</v>
       </c>
       <c r="M22" t="n">
         <v>6.74</v>
       </c>
       <c r="N22" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.67</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>12</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>0.025</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.3037</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>0.142</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>42</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Why do implicit and explicit attitude tests diverge? The role of structural fit.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.16</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>BK Payne, MA Burkley, MB Stokes</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>94</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>3452</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>3452</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>165</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.25</v>
       </c>
       <c r="M23" t="n">
         <v>4.25</v>
       </c>
       <c r="N23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>70</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.005</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.09</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>0.045</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
       <c r="W23" t="n">
         <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>46</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Terror management and adults' attachment to their parents: The safe haven remains.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.696</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>CR Cox, J Arndt, T Pyszczynski, J Greenberg, A Abdollahi, S Solomon</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>94</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Cox</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>1071</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Pyszcynski</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>22870</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>74</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.62</v>
       </c>
       <c r="M24" t="n">
         <v>2.62</v>
       </c>
       <c r="N24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O24" t="n">
         <v>3.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>4.5</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>100</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.03</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>0.224</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>0.47</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2386,165 +2457,171 @@
       <c r="W24" t="n">
         <v>0</v>
       </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>50</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Affective incoherence: When affective concepts and embodied reactions clash.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.560</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>DB Centerbar, S Schnall, GL Clore, ED Garvin</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>94</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Centerbar</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>671</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Clore</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>25989</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>35</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>2.91</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>4.36</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>3.12</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>3.25</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>133</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.01</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>-0.04</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>0.322</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
       <c r="V25" t="n">
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>51</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Individual differences in the regulation of intergroup bias: The role of conflict monitoring and neural signals for control.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.60</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>DM Amodio, PG Devine, E Harmon-Jones</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>94</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Amodio</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>5439</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Harmon-Jones</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>12887</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>5.19</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>3.45</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>4.67</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>48</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>0.03</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.16</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.513</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2552,165 +2629,171 @@
       <c r="W26" t="n">
         <v>0</v>
       </c>
+      <c r="X26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>54</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>A social functional approach to emotions in bargaining: when communicating anger pays and when it backfires.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.600</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>E van Dijk, GA van Kleef, W Steinel, I van Beest</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>94</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>4910</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>4910</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>97</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.6</v>
       </c>
       <c r="M27" t="n">
         <v>2.6</v>
       </c>
       <c r="N27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O27" t="n">
         <v>3</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>3.67</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>103</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.1433</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.796</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>56</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Walking on eggshells: How expressing relationship insecurities perpetuates them.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.420</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>EP Lemay, MS Clark</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>95</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Lemay</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>986</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>12819</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>40</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.56</v>
       </c>
       <c r="M28" t="n">
         <v>6.56</v>
       </c>
       <c r="N28" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O28" t="n">
         <v>2.33</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>2.67</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>186</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.025</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.028</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.54</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2718,82 +2801,85 @@
       <c r="W28" t="n">
         <v>0</v>
       </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>59</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Poignancy: Mixed emotional experience in the face of meaningful endings.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.158</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>H Ersner-Hershfield, JA Mikels, SJ Sullivan, LL Carstensen</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>94</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Ersner-Hershfield</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>919</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Carstensen</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>21330</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>80</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.54</v>
       </c>
       <c r="M29" t="n">
         <v>6.54</v>
       </c>
       <c r="N29" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>2.75</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>110</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.025</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.45</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2801,165 +2887,171 @@
       <c r="W29" t="n">
         <v>0</v>
       </c>
+      <c r="X29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>61</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1/f noise and effort on implicit measures of bias.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.48</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>J Correll</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>94</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>2379</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>2379</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>42</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.71</v>
       </c>
       <c r="M30" t="n">
         <v>4.71</v>
       </c>
       <c r="N30" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O30" t="n">
         <v>3.5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.25</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>71</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>0.01</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.374</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
-        <v>1</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>63</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Not so innocent: Does seeing one's own capacity for wrongdoing predict forgiveness?</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.495</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>JJ Exline, RF Baumeister, AL Zell, AJ Kraft, CV Witvliet</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>94</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Exline</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>3624</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>84112</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>81</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>2.68</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>3.66</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>3.6</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>45</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>0.005</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.186</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.89</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -2967,82 +3059,85 @@
       <c r="W31" t="n">
         <v>0</v>
       </c>
+      <c r="X31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>65</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Why people are reluctant to tempt fate.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.293</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>JL Risen, T Gilovich</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>95</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Risen</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>795</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Gilovich</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>16229</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>59</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>4.71</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>5.56</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>5.33</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>122</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>0.025</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.035</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.961</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3050,248 +3145,257 @@
       <c r="W32" t="n">
         <v>0</v>
       </c>
+      <c r="X32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>68</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>On the relative independence of thinking biases and cognitive ability.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.672</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>KE Stanovich, RF West</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>94</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>44032</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>44032</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>291</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.82</v>
       </c>
       <c r="M33" t="n">
         <v>3.82</v>
       </c>
       <c r="N33" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O33" t="n">
         <v>2.71</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>375</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.493</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.332</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>69</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Opening the mind to close it: Considering a message in light of important values increases message processing and later resistance to change.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.196</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>KL Blankenship, DT Wegener</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>94</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Blankenship</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>377</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Wegener</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>12699</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>37</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>2.46</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>4.43</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>2.32</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>3.18</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>261</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.002</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>0.042</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.49</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>78</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A needs-based model of reconciliation: Satisfying the differential emotional needs of victim and perpetrator as a key to promoting reconciliation.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.116</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>N Shnabel, A Nadler</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>94</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Shnabel</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>506</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Nadler</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>4609</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>138</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.95</v>
       </c>
       <c r="M35" t="n">
         <v>2.95</v>
       </c>
       <c r="N35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>3.33</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>94</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>0.025</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.235</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3299,414 +3403,429 @@
       <c r="W35" t="n">
         <v>0</v>
       </c>
+      <c r="X35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>79</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The face of success: inferences from chief executive officers' appearance predict company profits.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02054.x</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>NO Rule, N Ambady</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>95</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>1545</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Ambady</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>12216</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>141</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.74</v>
       </c>
       <c r="M36" t="n">
         <v>3.74</v>
       </c>
       <c r="N36" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O36" t="n">
         <v>3.75</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>4</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>50</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.025</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.3</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.08599999999999999</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
       <c r="V36" t="n">
         <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>80</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Selective exposure and information quantity: How different information quantities moderate decision makers' preference for consistent and inconsistent information.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.231</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>P Fischer, S Schulz-Hardt, D Frey</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>94</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Fischer</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>1539</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Frey</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>10023</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>65</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>2.54</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>2.53</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>3</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>52</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.001</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>1.1653</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>0.008</v>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
       <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="n">
-        <v>1</v>
+      <c r="X37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>82</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The space between us: Stereotype threat and distance in interracial contexts.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.91</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>PA Goff, CM Steele, PG Davies</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>94</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Goff</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1196</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>26670</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>165</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>4.08</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>6.54</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4</v>
       </c>
       <c r="O38" t="n">
         <v>4</v>
       </c>
       <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
         <v>55</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>0.005</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.16</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.928</v>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>1</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>84</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Sex differences in mate preferences revisited: Do people know what they initially desire in a romantic partner?</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.245</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>PW Eastwick, EJ Finkel</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>94</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Eastwick</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>1248</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Finkel</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>4655</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>202</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.42</v>
       </c>
       <c r="M39" t="n">
         <v>4.42</v>
       </c>
       <c r="N39" t="n">
-        <v>3.67</v>
+        <v>4.42</v>
       </c>
       <c r="O39" t="n">
         <v>3.67</v>
       </c>
       <c r="P39" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q39" t="n">
         <v>163</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.48</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.04</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.87</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
+      <c r="X39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>88</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Balancing connectedness and self-protection goals in close relationships: A levels-of-processing perspective on risk regulation.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.429</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>SL Murray, JL Derrick, S Leder, JG Holmes</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>94</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Murray</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>5349</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Holmes</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>11286</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>117</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>2.84</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>2.98</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1.4</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>2.6</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>91</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.005</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.265</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3714,165 +3833,171 @@
       <c r="W40" t="n">
         <v>0</v>
       </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>89</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Self-handicapping, excuse making, and counterfactual thinking: Consequences for self-esteem and future motivation.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.274</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>SM McCrea</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>95</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>828</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>828</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>51</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.09</v>
       </c>
       <c r="M41" t="n">
         <v>2.09</v>
       </c>
       <c r="N41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O41" t="n">
         <v>2</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>28</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>0.025</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.736</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.01175</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
       <c r="V41" t="n">
         <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>92</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Social identity contingencies: How diversity cues signal threat or safety for African Americans in mainstream institutions.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.615</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>V Purdie-Vaughns, CM Steele, PG Davies, R Ditlmann, JR Crosby</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>94</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Purdie-Vaughns</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2400</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>26670</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>240</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>6.56</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>6.54</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>2.6</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>3.4</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>90</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>0.001</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>0.1431</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>0.154</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3880,82 +4005,85 @@
       <c r="W42" t="n">
         <v>0</v>
       </c>
+      <c r="X42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>101</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>More than meets the eye: the role of language in binding and maintaining feature conjunctions.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02066.x</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>B Dessalegn, B Landau</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>19</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Dessalegn</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>190</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Landau</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>6864</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>52</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.29</v>
       </c>
       <c r="M43" t="n">
         <v>5.29</v>
       </c>
       <c r="N43" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O43" t="n">
         <v>2</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>3.33</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>36</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.025</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.82</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.132</v>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,746 +4091,773 @@
       <c r="W43" t="n">
         <v>0</v>
       </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>102</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Nonconscious goal pursuit in novel environments: The case of implicit learning.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02078.x</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>B Eitam, RR Hassin, Y Schul</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>19</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Eitam</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>206</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Hassin</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>2448</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>66</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.48</v>
       </c>
       <c r="M44" t="n">
         <v>2.48</v>
       </c>
       <c r="N44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O44" t="n">
         <v>4.33</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>3.33</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>86</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>0.92</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.45</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>0.189</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
       <c r="V44" t="n">
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>105</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Perceptual mechanisms that characterize gender differences in decoding women's sexual intent</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02092.x</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>C Farris, TA Treat, RJ Viken, RM McFall</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>19</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Farris</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>378</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>McFall</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>5836</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>37</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.53</v>
       </c>
       <c r="M45" t="n">
         <v>3.53</v>
       </c>
       <c r="N45" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O45" t="n">
         <v>2.8</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>3.2</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>280</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>0.326</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>0.28</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>106</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Precision of the anchor influences the amount of adjustment.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02057.x</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>C Janiszewski, D Uy</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>19</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>6591</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>6591</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>53</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>3.4</v>
       </c>
       <c r="N46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O46" t="n">
         <v>2</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>59</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>0.947</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.02</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>0.014</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>107</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Action dynamics reveal parallel competition in decision making</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02041.x</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>C McKinstry, R Dale, MJ Spivey</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>19</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>McKinstry</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>233</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Spivey</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>8475</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>103</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>2.39</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>5.56</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>3.6</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>3.2</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>141</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>0.025</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>-0.7</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>0.01</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
       <c r="V47" t="n">
         <v>1</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>108</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Prescribed optimism: Is it right to be wrong about the future?</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02089.x</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>DA Armor, C Massey, AM Sackett</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>19</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Armor</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>2061</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Massey</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>250</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>32</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>3.02</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>6.56</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>2.2</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>3</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>125</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>1.485</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>0.93</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>1e-12</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="V48" t="n">
-        <v>1</v>
-      </c>
       <c r="W48" t="n">
         <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>109</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Age-related changes in the episodic simulation of future events</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02043.x</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>DR Addis, AT Wong, DL Schacter</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>19</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Addis</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>6138</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Schacter</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>64583</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>248</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.74</v>
       </c>
       <c r="M49" t="n">
         <v>6.74</v>
       </c>
       <c r="N49" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O49" t="n">
         <v>2.8</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>3.6</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>32</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>0.99</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>0.326</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
       <c r="V49" t="n">
         <v>1</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>110</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Preschoolers' perspective taking in word learning: do they blindly follow eye gaze?</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02069.x</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E Nurmsoo, P Bloom</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>19</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Nurmsoo</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>271</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Bloom</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>15271</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>22</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.56</v>
       </c>
       <c r="M50" t="n">
         <v>6.56</v>
       </c>
       <c r="N50" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O50" t="n">
         <v>2.8</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>3.8</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>32</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>0.97</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>0.571</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>0.197</v>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>1</v>
-      </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>111</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Measuring the crowd within: Probabilistic representations within individuals.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02136.x</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E Vul, H Pashler</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>19</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>2785</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Pashler</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>17561</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>122</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>6.42</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>4.08</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>2.67</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>4.33</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>173</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.005</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>0.47</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>0.001</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
       <c r="V51" t="n">
         <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>113</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Toward a physiology of dual-process reasoning and judgment: lemonade, willpower, and expensive rule-based analysis.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02077.x</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>EJ Masicampo, RF Baumeister</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>19</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Masicampo</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>983</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>84112</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>202</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.66</v>
       </c>
       <c r="M52" t="n">
         <v>3.66</v>
       </c>
       <c r="N52" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O52" t="n">
         <v>4.5</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>3.75</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>115</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.92</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0.045</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>0.539</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -4710,248 +4865,257 @@
       <c r="W52" t="n">
         <v>0</v>
       </c>
+      <c r="X52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>115</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Errors Are Aversive: Defensive Motivation and the Error-Related Negativity</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02053.x</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>G Hajcak, D Foti</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>19</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>8843</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>8843</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>172</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.85</v>
       </c>
       <c r="M53" t="n">
         <v>2.85</v>
       </c>
       <c r="N53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O53" t="n">
         <v>2.42</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>3.28</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>31</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>0.025</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.38</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.11</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
       <c r="V53" t="n">
         <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>117</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>The representation of simple ensemble visual features outside the focus of attention</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02098.x</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>GA Alvarez, A Oliva</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>19</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Alvarez</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>3554</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Oliva</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>11460</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>134</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.42</v>
       </c>
       <c r="M54" t="n">
         <v>6.42</v>
       </c>
       <c r="N54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="O54" t="n">
         <v>3.17</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>3.5</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>8</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>0.028</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>0.976</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
       <c r="W54" t="n">
         <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>119</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Loving those who justify inequality: the effects of system threat on attraction to women who embody benevolent sexist ideals.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02040.x</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>GP Lau, AC Kay, SJ Spencer</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>19</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Lau</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>54</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Spencer</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>11032</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>54</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.98</v>
       </c>
       <c r="M55" t="n">
         <v>2.98</v>
       </c>
       <c r="N55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O55" t="n">
         <v>4</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>36</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>0.93</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>0.147</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>0.79</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -4959,165 +5123,171 @@
       <c r="W55" t="n">
         <v>0</v>
       </c>
+      <c r="X55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>121</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>A motion aftereffect from still photographs depicting motion</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02080.x</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>J Winawer, AC Huk, L Boroditsky</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>19</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>3</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Winawer</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>2029</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Boroditsky</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>5834</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>47</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.54</v>
       </c>
       <c r="M56" t="n">
         <v>6.54</v>
       </c>
       <c r="N56" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O56" t="n">
         <v>3.5</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>3</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>29</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>3e-05</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>0.00471</v>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
       <c r="V56" t="n">
         <v>1</v>
       </c>
       <c r="W56" t="n">
         <v>1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>123</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>The threat of appearing prejudiced and race-based attentional biases.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02052.x</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>JA Richeson, S Trawalter</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>19</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4539</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>4539</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>75</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.42</v>
       </c>
       <c r="M57" t="n">
         <v>4.42</v>
       </c>
       <c r="N57" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O57" t="n">
         <v>4</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>3.33</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>28</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>0.92</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>0.8</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>0.89</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5125,580 +5295,601 @@
       <c r="W57" t="n">
         <v>0</v>
       </c>
+      <c r="X57" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>126</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Adaptive memory: The comparative value of survival processing.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02064.x</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>JS Nairne, JN Pandeirada, SR Thompson</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>19</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>4482</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>4482</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>191</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.43</v>
       </c>
       <c r="M58" t="n">
         <v>4.43</v>
       </c>
       <c r="N58" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O58" t="n">
         <v>2.25</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>3.25</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>24</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
         <v>0.2</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>0.007</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U58" t="n">
-        <v>1</v>
-      </c>
       <c r="V58" t="n">
         <v>1</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>127</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Is happiness having what you want, wanting what you have, or both?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02095.x</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>JT Larsen, AR McKibban</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>19</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>5016</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>5016</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>22</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.88</v>
       </c>
       <c r="M59" t="n">
         <v>2.88</v>
       </c>
       <c r="N59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O59" t="n">
         <v>2.67</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>4</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>119</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>0.92</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>0.21</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>0.001</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="n">
-        <v>1</v>
-      </c>
       <c r="W59" t="n">
         <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>128</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Implicit attitude generalization occurs immediately; explicit attitude generalization takes time</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02076.x</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>KA Ranganath, BA Nosek</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>19</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>2</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Ranganath</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>800</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Nosek</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>16030</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>65</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.36</v>
       </c>
       <c r="M60" t="n">
         <v>4.36</v>
       </c>
       <c r="N60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O60" t="n">
         <v>3.67</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>4.67</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>564</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>0.18</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>-0.004</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>0</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="n">
-        <v>1</v>
-      </c>
       <c r="W60" t="n">
         <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>129</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>The value of believing in free will: Encouraging a belief in determinism increases cheating.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02045.x</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>KD Vohs, JW Schooler</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>19</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>19845</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>19845</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>341</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.64</v>
       </c>
       <c r="M61" t="n">
         <v>3.64</v>
       </c>
       <c r="N61" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="O61" t="n">
         <v>3.75</v>
       </c>
       <c r="P61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q61" t="n">
         <v>30</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>0.005</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>0.88</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>0.44</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="V61" t="n">
-        <v>1</v>
-      </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>137</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>“In-Group Love” and “Out-Group Hate” as Motives for Individual Participation in Intergroup Conflict: A New Game Paradigm</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02100.x</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>N Halevy, G Bornstein, L Sagiv</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>19</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>3</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Halevy</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>783</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Sagiv</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>4290</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>126</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.48</v>
       </c>
       <c r="M62" t="n">
         <v>2.48</v>
       </c>
       <c r="N62" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O62" t="n">
         <v>2.75</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>4</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>240</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>0.59</v>
       </c>
-      <c r="S62" t="n">
+      <c r="T62" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U62" t="n">
-        <v>1</v>
-      </c>
       <c r="V62" t="n">
         <v>1</v>
       </c>
       <c r="W62" t="n">
         <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>138</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>A word-order constraint on phonological activation</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02070.x</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>N Janssen, FX Alario, A Caramazza</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>19</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>3</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>569</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>33703</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>15</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>1.9</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>6.74</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>5.33</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>5</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>15</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>0.0035</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>1.71</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>0.09</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U63" t="n">
-        <v>1</v>
-      </c>
       <c r="V63" t="n">
         <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>140</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The Best Men Are (Not Always) Already Taken: Female Preference for Single Versus Attached Males Depends on Conception Risk</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02060.x</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>P Bressan, D Stranieri</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>19</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>2</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1999</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>1999</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>20</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.97</v>
       </c>
       <c r="M64" t="n">
         <v>1.97</v>
       </c>
       <c r="N64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O64" t="n">
         <v>3.5</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>3.6</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>208</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>0.008</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.19</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>0.746</v>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -5706,165 +5897,171 @@
       <c r="W64" t="n">
         <v>0</v>
       </c>
+      <c r="X64" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>141</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Sensitivity to object viewpoint and action instructions during search for targets in the lower visual field</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02044.x</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>S Forti, GW Humphreys</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>19</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>2</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Forti</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>134</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Humphreys</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>11039</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.7</v>
       </c>
       <c r="M65" t="n">
         <v>2.7</v>
       </c>
       <c r="N65" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="O65" t="n">
         <v>2.67</v>
       </c>
       <c r="P65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q65" t="n">
         <v>14</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>0.99</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>0.522</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>0.369</v>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
-        <v>1</v>
-      </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>142</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>With a clean conscience: Cleanliness reduces the severity of moral judgments.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02227.x</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>S Schnall, J Benton, S Harvey</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>19</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>3</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>1700</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>1700</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>246</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.03</v>
       </c>
       <c r="M66" t="n">
         <v>2.03</v>
       </c>
       <c r="N66" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O66" t="n">
         <v>5</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>4</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>43</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>0.97</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>0.16</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>0.97</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -5872,165 +6069,171 @@
       <c r="W66" t="n">
         <v>0</v>
       </c>
+      <c r="X66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>144</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Extremal edge: a powerful cue to depth perception and figure-ground organization</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02049.x</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>SE Palmer, T Ghose</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>19</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>10291</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>10291</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>38</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.61</v>
       </c>
       <c r="M67" t="n">
         <v>5.61</v>
       </c>
       <c r="N67" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O67" t="n">
         <v>2.67</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>3</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>8</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>1.573</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>0.76</v>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="n">
-        <v>1</v>
-      </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>146</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Personality dominance and preferential use of the vertical dimension of space</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02093.x</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>SK Moeller, MD Robinson, DL Zabelina</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>19</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Moeller</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>230</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Robinson</t>
         </is>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>6629</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>33</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.34</v>
       </c>
       <c r="M68" t="n">
         <v>2.34</v>
       </c>
       <c r="N68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O68" t="n">
         <v>4.4</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>3</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>53</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>0.025</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>-0.31</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>0.78</v>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6038,254 +6241,266 @@
       <c r="W68" t="n">
         <v>0</v>
       </c>
+      <c r="X68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>149</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Conflict-triggered goal shielding: Response conflicts attenuate background monitoring for prospective memory cues.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02042.x</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>T Goschke, G Dreisbach</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>19</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>4017</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>4017</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>45</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.09</v>
       </c>
       <c r="M69" t="n">
         <v>2.09</v>
       </c>
       <c r="N69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O69" t="n">
         <v>3.5</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>3.25</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>40</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>0.927</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>0.14</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>3.5e-05</v>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U69" t="n">
-        <v>1</v>
-      </c>
       <c r="V69" t="n">
         <v>1</v>
       </c>
       <c r="W69" t="n">
         <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>152</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Detecting the snake in the grass: attention to fear-relevant stimuli by adults and young children.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02081.x</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>V Lobue, JS DeLoache</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>19</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Lobue</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>563</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>DeLoache</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>8201</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>143</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.36</v>
       </c>
       <c r="M70" t="n">
         <v>4.36</v>
       </c>
       <c r="N70" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O70" t="n">
         <v>2</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>3.67</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>48</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>0.005</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>0.23</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>0.237</v>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="V70" t="n">
-        <v>1</v>
-      </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>158</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Head up, foot down: Object words orient attention to the objects' typical location.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02051.x</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Z Estes, M Verges, LW Barsalou</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>19</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>3</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Estes</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1188</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Barsalou</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>26096</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>91</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>2.67</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>3.65</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>5.2</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>4</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>18</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>0.97</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.7</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.24</v>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U71" t="n">
-        <v>1</v>
-      </c>
       <c r="V71" t="n">
         <v>1</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X71" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,112 +369,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Study.Title.O</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Authors.O</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Volume.O</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Number.of.Authors.O</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>1st.author.O</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Citation.Count.1st.author.O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Senior.author.O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.senior.author.O</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.paper.O</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.1st.author.O</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.senior.author.O</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Surprising.result.O</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Exciting.result.O</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>N.O</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Reported.P.value.O</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Effect.size.O</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>P.value.R</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Direction.R</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>O.within.CI.R</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Meta.analysis.significant</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue.label</t>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Fold_Id</t>
         </is>
       </c>
     </row>
@@ -482,990 +487,1023 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Tracing attention and the activation flow in spoken word planning using eye movements.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.353</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>A Roelofs</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>34</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8005</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8005</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>46</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.52</v>
       </c>
       <c r="M2" t="n">
         <v>2.52</v>
       </c>
       <c r="N2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.75</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>24</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.02</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.354</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.435</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Now you see it, now you don't: repetition blindness for nonwords</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.146</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>AL Morris, ML Still</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>34</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>240</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>240</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.27</v>
       </c>
       <c r="M3" t="n">
         <v>3.27</v>
       </c>
       <c r="N3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.28</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>2.86</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>24</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.0025</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.374</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.269</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Working memory costs of task switching.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.478</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B Liefooghe, P Barrouillet, A Vandierendonck, V Camos</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>34</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liefooghe</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1737</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Vandierendonck</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>3191</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.57</v>
       </c>
       <c r="M4" t="n">
         <v>2.57</v>
       </c>
       <c r="N4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O4" t="n">
         <v>2.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>25</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.025</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.181</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.229</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Accelerated relearning after retrieval-induced forgetting: The benefit of being forgotten.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.230</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>BC Storm, EL Bjork, RA Bjork</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Storm</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>763</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Bjork</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>16509</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.16</v>
       </c>
       <c r="M5" t="n">
         <v>5.16</v>
       </c>
       <c r="N5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>240</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.052</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>A single-system account of the relationship between priming, recognition, and fluency.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.97</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>CJ Berry, DR Shanks, RN Henson</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>34</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Berry</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>232</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Henson</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>22335</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>37</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4.13</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>2.12</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>3.66</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>4.33</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>24</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.002</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.724</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.023</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Modeling distributions of immediate memory effects: No strategies needed?</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.219</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>CP Beaman, I Neath, AM Surprenant</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1024</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1024</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.22</v>
       </c>
       <c r="M7" t="n">
         <v>2.22</v>
       </c>
       <c r="N7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.33</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.67</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>100</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.025</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>1.02</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.314</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Stereotypes and retrieval-provoked illusory source recollections.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.460</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>CS Dodson, J Darragh, A Williams</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>34</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>1967</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1967</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.36</v>
       </c>
       <c r="M8" t="n">
         <v>4.36</v>
       </c>
       <c r="N8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>3.75</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>39</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.32</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.54</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Across-notation automatic numerical processing.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.430</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>D Ganor-Stern, J Tzelgov</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>34</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ganor-Stern</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>486</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Tzelgov</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3059</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>51</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.28</v>
       </c>
       <c r="N9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O9" t="n">
         <v>2.4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>32</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.488</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.001</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Attractor dynamics and semantic neighborhood density: Processing is slowed by near neighbors and speeded by distant neighbors.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.65</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>D Mirman, JS Magnuson</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>34</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Mirman</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1002</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Magnuson</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>3289</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>56</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.16</v>
       </c>
       <c r="M10" t="n">
         <v>3.16</v>
       </c>
       <c r="N10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.7</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>3.2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>22</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.452</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.008</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>The Stroop effect: Why proportion congruent has nothing to do with congruency and everything to do with contingency.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.514</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>JR Schmidt, D Besner</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>34</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Schmidt</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>409</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>11136</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>92</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.98</v>
       </c>
       <c r="M11" t="n">
         <v>2.98</v>
       </c>
       <c r="N11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>3.33</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>95</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.028</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.198</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>18</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>How to say no: Single-and dual-process theories of short-term recognition tested on negative probes.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.439</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>K Oberauer</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>34</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>5974</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>5974</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.69</v>
       </c>
       <c r="M12" t="n">
         <v>2.69</v>
       </c>
       <c r="N12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O12" t="n">
         <v>2.67</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>32</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.31</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Intentional forgetting is easier after two ""shots"" than one.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.408</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>L Sahakyan, PF Delaney, ER Waldum</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>34</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>791</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>299</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>21</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.84</v>
       </c>
       <c r="M13" t="n">
         <v>2.84</v>
       </c>
       <c r="N13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O13" t="n">
         <v>3.17</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>3.67</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>96</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.025</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.05</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.84</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1473,331 +1511,343 @@
       <c r="W13" t="n">
         <v>0</v>
       </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>22</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Priming addition facts with semantic relations.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.343</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>M Bassok, SF Pedigo, AT Oskarsson</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>34</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>5489</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5489</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>50</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.04</v>
       </c>
       <c r="M14" t="n">
         <v>4.04</v>
       </c>
       <c r="N14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O14" t="n">
         <v>4</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>2.67</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>154</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.045</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
       <c r="V14" t="n">
         <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Contextual effects on reading aloud: Evidence for pathway control.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.50</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>M Reynolds, D Besner</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>34</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Reynolds</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>462</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>11136</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>16</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>1.87</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>2.98</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>2.75</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>3.25</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>0.15</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.026</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.17</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>25</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>On the additive effects of stimulus quality and word frequency in lexical decision: Evidence for opposing interactive influences revealed by RT distributional analyses.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.495</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>MJ Yap, DA Balota, CS Tse, D Besner</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>34</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Yap</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>2514</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Balota</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>16500</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.61</v>
       </c>
       <c r="M16" t="n">
         <v>3.61</v>
       </c>
       <c r="N16" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O16" t="n">
         <v>2.5</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>2.33</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>32</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>0.03</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>0.143</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.001</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>26</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Semantic interference in a delayed naming task: Evidence for the response exclusion hypothesis.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.249</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>N Janssen, W Schirm, BZ Mahon, A Caramazza</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>34</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>567</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>25000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>72</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.74</v>
       </c>
       <c r="M17" t="n">
         <v>6.74</v>
       </c>
       <c r="N17" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
       <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
         <v>32</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.03</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.74</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.33</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1805,580 +1855,601 @@
       <c r="W17" t="n">
         <v>0</v>
       </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>27</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Multidimensional visual statistical learning.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.399</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>NB Turk-Browne, PJ Isola, BJ Scholl, TA Treat</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>34</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Turk-Brown</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1740</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Scholl</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>6204</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>61</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.56</v>
       </c>
       <c r="M18" t="n">
         <v>6.56</v>
       </c>
       <c r="N18" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O18" t="n">
         <v>2.25</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3.25</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>8</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.023</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.09</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.002</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Accounting for occurrences: A new view of the use of contingency information in causal judgment.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.204</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>PA White</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>34</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1472</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>1472</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>11</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.07</v>
       </c>
       <c r="M19" t="n">
         <v>3.07</v>
       </c>
       <c r="N19" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>2.33</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>37</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.427</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.002</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
       <c r="V19" t="n">
         <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Multiple roles for time in short-term memory: Evidence from serial recall of order and timing.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.128</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>S Farrell</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>34</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>1830</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>1830</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>27</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.69</v>
       </c>
       <c r="M20" t="n">
         <v>2.69</v>
       </c>
       <c r="N20" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.5</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>4.33</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>40</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.001</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.6</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.044</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
       <c r="V20" t="n">
         <v>1</v>
       </c>
       <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>An attention-based associative account of adjacent and nonadjacent dependency learning.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.80</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>S Pacton, P Perruchet</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>34</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Pacton</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1341</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Perruchet</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>5255</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>72</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>2.25</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1.65</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>3</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3.5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>24</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>0.005</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.51</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.00048</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>35</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Orienting attention in visual working memory reduces interference from memory probes.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.369</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>T Makovski, R Sussman, YV Jiang</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>34</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Makovski</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>578</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Jiang</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>6598</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>116</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.74</v>
       </c>
       <c r="M22" t="n">
         <v>6.74</v>
       </c>
       <c r="N22" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.67</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>12</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>0.025</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.3037</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>0.142</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>42</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Why do implicit and explicit attitude tests diverge? The role of structural fit.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.16</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>BK Payne, MA Burkley, MB Stokes</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>94</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>3452</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>3452</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>165</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.25</v>
       </c>
       <c r="M23" t="n">
         <v>4.25</v>
       </c>
       <c r="N23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>70</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.005</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.09</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>0.045</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
       <c r="W23" t="n">
         <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>46</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Terror management and adults' attachment to their parents: The safe haven remains.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.696</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>CR Cox, J Arndt, T Pyszczynski, J Greenberg, A Abdollahi, S Solomon</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>94</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Cox</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>1071</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Pyszcynski</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>22870</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>74</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.62</v>
       </c>
       <c r="M24" t="n">
         <v>2.62</v>
       </c>
       <c r="N24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O24" t="n">
         <v>3.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>4.5</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>100</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.03</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>0.224</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>0.47</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2386,165 +2457,171 @@
       <c r="W24" t="n">
         <v>0</v>
       </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>50</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Affective incoherence: When affective concepts and embodied reactions clash.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.560</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>DB Centerbar, S Schnall, GL Clore, ED Garvin</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>94</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Centerbar</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>671</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Clore</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>25989</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>35</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>2.91</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>4.36</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>3.12</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>3.25</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>133</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.01</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>-0.04</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>0.322</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
       <c r="V25" t="n">
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>51</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Individual differences in the regulation of intergroup bias: The role of conflict monitoring and neural signals for control.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.60</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>DM Amodio, PG Devine, E Harmon-Jones</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>94</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Amodio</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>5439</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Harmon-Jones</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>12887</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>5.19</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>3.45</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>4.67</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>48</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>0.03</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.16</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.513</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2552,165 +2629,171 @@
       <c r="W26" t="n">
         <v>0</v>
       </c>
+      <c r="X26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>54</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>A social functional approach to emotions in bargaining: when communicating anger pays and when it backfires.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.600</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>E van Dijk, GA van Kleef, W Steinel, I van Beest</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>94</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>4910</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>4910</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>97</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.6</v>
       </c>
       <c r="M27" t="n">
         <v>2.6</v>
       </c>
       <c r="N27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O27" t="n">
         <v>3</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>3.67</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>103</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.1433</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.796</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>56</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Walking on eggshells: How expressing relationship insecurities perpetuates them.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.420</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>EP Lemay, MS Clark</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>95</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Lemay</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>986</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>12819</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>40</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.56</v>
       </c>
       <c r="M28" t="n">
         <v>6.56</v>
       </c>
       <c r="N28" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O28" t="n">
         <v>2.33</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>2.67</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>186</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.025</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.028</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.54</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2718,82 +2801,85 @@
       <c r="W28" t="n">
         <v>0</v>
       </c>
+      <c r="X28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>59</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Poignancy: Mixed emotional experience in the face of meaningful endings.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.158</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>H Ersner-Hershfield, JA Mikels, SJ Sullivan, LL Carstensen</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>94</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Ersner-Hershfield</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>919</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Carstensen</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>21330</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>80</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.54</v>
       </c>
       <c r="M29" t="n">
         <v>6.54</v>
       </c>
       <c r="N29" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>2.75</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>110</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.025</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.45</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2801,165 +2887,171 @@
       <c r="W29" t="n">
         <v>0</v>
       </c>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>61</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1/f noise and effort on implicit measures of bias.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.48</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>J Correll</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>94</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>2379</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>2379</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>42</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.71</v>
       </c>
       <c r="M30" t="n">
         <v>4.71</v>
       </c>
       <c r="N30" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O30" t="n">
         <v>3.5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.25</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>71</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>0.01</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.374</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
-        <v>1</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>63</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Not so innocent: Does seeing one's own capacity for wrongdoing predict forgiveness?</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.495</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>JJ Exline, RF Baumeister, AL Zell, AJ Kraft, CV Witvliet</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>94</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Exline</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>3624</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>84112</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>81</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>2.68</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>3.66</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>3.6</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>45</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>0.005</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.186</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.89</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -2967,82 +3059,85 @@
       <c r="W31" t="n">
         <v>0</v>
       </c>
+      <c r="X31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>65</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Why people are reluctant to tempt fate.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.293</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>JL Risen, T Gilovich</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>95</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Risen</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>795</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Gilovich</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>16229</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>59</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>4.71</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>5.56</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>5.33</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>122</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>0.025</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.035</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.961</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3050,248 +3145,257 @@
       <c r="W32" t="n">
         <v>0</v>
       </c>
+      <c r="X32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>68</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>On the relative independence of thinking biases and cognitive ability.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.672</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>KE Stanovich, RF West</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>94</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>44032</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>44032</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>291</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.82</v>
       </c>
       <c r="M33" t="n">
         <v>3.82</v>
       </c>
       <c r="N33" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O33" t="n">
         <v>2.71</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>375</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.493</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.332</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>69</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Opening the mind to close it: Considering a message in light of important values increases message processing and later resistance to change.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.196</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>KL Blankenship, DT Wegener</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>94</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Blankenship</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>377</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Wegener</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>12699</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>37</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>2.46</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>4.43</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>2.32</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>3.18</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>261</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.002</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>0.042</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.49</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>78</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A needs-based model of reconciliation: Satisfying the differential emotional needs of victim and perpetrator as a key to promoting reconciliation.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.116</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>N Shnabel, A Nadler</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>94</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Shnabel</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>506</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Nadler</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>4609</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>138</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.95</v>
       </c>
       <c r="M35" t="n">
         <v>2.95</v>
       </c>
       <c r="N35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>3.33</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>94</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>0.025</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.235</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3299,414 +3403,429 @@
       <c r="W35" t="n">
         <v>0</v>
       </c>
+      <c r="X35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>79</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The face of success: inferences from chief executive officers' appearance predict company profits.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02054.x</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>NO Rule, N Ambady</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>95</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>1545</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Ambady</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>12216</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>141</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.74</v>
       </c>
       <c r="M36" t="n">
         <v>3.74</v>
       </c>
       <c r="N36" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O36" t="n">
         <v>3.75</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>4</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>50</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.025</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.3</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.08599999999999999</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
       <c r="V36" t="n">
         <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>80</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Selective exposure and information quantity: How different information quantities moderate decision makers' preference for consistent and inconsistent information.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.231</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>P Fischer, S Schulz-Hardt, D Frey</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>94</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Fischer</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>1539</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Frey</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>10023</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>65</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>2.54</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>2.53</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>3</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>52</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.001</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>1.1653</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>0.008</v>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
       <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="n">
-        <v>1</v>
+      <c r="X37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>82</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The space between us: Stereotype threat and distance in interracial contexts.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.91</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>PA Goff, CM Steele, PG Davies</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>94</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Goff</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1196</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>26670</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>165</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>4.08</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>6.54</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4</v>
       </c>
       <c r="O38" t="n">
         <v>4</v>
       </c>
       <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
         <v>55</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>0.005</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.16</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.928</v>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>1</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>84</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Sex differences in mate preferences revisited: Do people know what they initially desire in a romantic partner?</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.245</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>PW Eastwick, EJ Finkel</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>94</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Eastwick</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>1248</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Finkel</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>4655</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>202</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.42</v>
       </c>
       <c r="M39" t="n">
         <v>4.42</v>
       </c>
       <c r="N39" t="n">
-        <v>3.67</v>
+        <v>4.42</v>
       </c>
       <c r="O39" t="n">
         <v>3.67</v>
       </c>
       <c r="P39" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q39" t="n">
         <v>163</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.48</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.04</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.87</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
+      <c r="X39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>88</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Balancing connectedness and self-protection goals in close relationships: A levels-of-processing perspective on risk regulation.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.429</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>SL Murray, JL Derrick, S Leder, JG Holmes</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>94</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Murray</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>5349</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Holmes</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>11286</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>117</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>2.84</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>2.98</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1.4</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>2.6</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>91</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.005</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.265</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3714,165 +3833,171 @@
       <c r="W40" t="n">
         <v>0</v>
       </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>89</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Self-handicapping, excuse making, and counterfactual thinking: Consequences for self-esteem and future motivation.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.274</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>SM McCrea</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>95</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>828</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>828</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>51</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.09</v>
       </c>
       <c r="M41" t="n">
         <v>2.09</v>
       </c>
       <c r="N41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O41" t="n">
         <v>2</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>28</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>0.025</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.736</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.01175</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
       <c r="V41" t="n">
         <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>92</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Social identity contingencies: How diversity cues signal threat or safety for African Americans in mainstream institutions.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.615</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>V Purdie-Vaughns, CM Steele, PG Davies, R Ditlmann, JR Crosby</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>94</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Purdie-Vaughns</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2400</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>26670</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>240</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>6.56</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>6.54</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>2.6</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>3.4</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>90</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>0.001</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>0.1431</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>0.154</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3880,82 +4005,85 @@
       <c r="W42" t="n">
         <v>0</v>
       </c>
+      <c r="X42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>101</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>More than meets the eye: the role of language in binding and maintaining feature conjunctions.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02066.x</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>B Dessalegn, B Landau</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>19</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Dessalegn</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>190</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Landau</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>6864</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>52</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.29</v>
       </c>
       <c r="M43" t="n">
         <v>5.29</v>
       </c>
       <c r="N43" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O43" t="n">
         <v>2</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>3.33</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>36</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.025</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.82</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.132</v>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,746 +4091,773 @@
       <c r="W43" t="n">
         <v>0</v>
       </c>
+      <c r="X43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>102</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Nonconscious goal pursuit in novel environments: The case of implicit learning.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02078.x</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>B Eitam, RR Hassin, Y Schul</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>19</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Eitam</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>206</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Hassin</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>2448</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>66</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.48</v>
       </c>
       <c r="M44" t="n">
         <v>2.48</v>
       </c>
       <c r="N44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O44" t="n">
         <v>4.33</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>3.33</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>86</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>0.92</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.45</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>0.189</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
       <c r="V44" t="n">
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>105</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Perceptual mechanisms that characterize gender differences in decoding women's sexual intent</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02092.x</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>C Farris, TA Treat, RJ Viken, RM McFall</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>19</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Farris</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>378</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>McFall</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>5836</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>37</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.53</v>
       </c>
       <c r="M45" t="n">
         <v>3.53</v>
       </c>
       <c r="N45" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O45" t="n">
         <v>2.8</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>3.2</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>280</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>0.326</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>0.28</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>106</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Precision of the anchor influences the amount of adjustment.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02057.x</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>C Janiszewski, D Uy</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>19</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>6591</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>6591</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>53</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>3.4</v>
       </c>
       <c r="N46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O46" t="n">
         <v>2</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>59</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>0.947</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.02</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>0.014</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>107</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Action dynamics reveal parallel competition in decision making</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02041.x</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>C McKinstry, R Dale, MJ Spivey</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>19</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>McKinstry</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>233</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Spivey</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>8475</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>103</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>2.39</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>5.56</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>3.6</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>3.2</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>141</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>0.025</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>-0.7</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>0.01</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
       <c r="V47" t="n">
         <v>1</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>108</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Prescribed optimism: Is it right to be wrong about the future?</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02089.x</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>DA Armor, C Massey, AM Sackett</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>19</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Armor</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>2061</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Massey</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>250</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>32</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>3.02</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>6.56</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>2.2</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>3</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>125</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>1.485</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>0.93</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>1e-12</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="V48" t="n">
-        <v>1</v>
-      </c>
       <c r="W48" t="n">
         <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>109</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Age-related changes in the episodic simulation of future events</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02043.x</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>DR Addis, AT Wong, DL Schacter</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>19</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Addis</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>6138</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Schacter</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>64583</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>248</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.74</v>
       </c>
       <c r="M49" t="n">
         <v>6.74</v>
       </c>
       <c r="N49" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O49" t="n">
         <v>2.8</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>3.6</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>32</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>0.99</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>0.326</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
       <c r="V49" t="n">
         <v>1</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>110</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Preschoolers' perspective taking in word learning: do they blindly follow eye gaze?</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02069.x</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E Nurmsoo, P Bloom</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>19</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Nurmsoo</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>271</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Bloom</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>15271</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>22</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.56</v>
       </c>
       <c r="M50" t="n">
         <v>6.56</v>
       </c>
       <c r="N50" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="O50" t="n">
         <v>2.8</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>3.8</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>32</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>0.97</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>0.571</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>0.197</v>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>1</v>
-      </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>111</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Measuring the crowd within: Probabilistic representations within individuals.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02136.x</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E Vul, H Pashler</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>19</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>2785</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Pashler</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>17561</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>122</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>6.42</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>4.08</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>2.67</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>4.33</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>173</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.005</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>0.47</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>0.001</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
       <c r="V51" t="n">
         <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>113</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Toward a physiology of dual-process reasoning and judgment: lemonade, willpower, and expensive rule-based analysis.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02077.x</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>EJ Masicampo, RF Baumeister</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>19</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Masicampo</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>983</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>84112</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>202</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.66</v>
       </c>
       <c r="M52" t="n">
         <v>3.66</v>
       </c>
       <c r="N52" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O52" t="n">
         <v>4.5</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>3.75</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>115</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.92</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0.045</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>0.539</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -4710,248 +4865,257 @@
       <c r="W52" t="n">
         <v>0</v>
       </c>
+      <c r="X52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>115</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Errors Are Aversive: Defensive Motivation and the Error-Related Negativity</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02053.x</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>G Hajcak, D Foti</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>19</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>8843</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>8843</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>172</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.85</v>
       </c>
       <c r="M53" t="n">
         <v>2.85</v>
       </c>
       <c r="N53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O53" t="n">
         <v>2.42</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>3.28</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>31</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>0.025</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.38</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.11</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
       <c r="V53" t="n">
         <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>117</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>The representation of simple ensemble visual features outside the focus of attention</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02098.x</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>GA Alvarez, A Oliva</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>19</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Alvarez</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>3554</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Oliva</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>11460</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>134</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.42</v>
       </c>
       <c r="M54" t="n">
         <v>6.42</v>
       </c>
       <c r="N54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="O54" t="n">
         <v>3.17</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>3.5</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>8</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>0.028</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>0.976</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
       <c r="W54" t="n">
         <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>119</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Loving those who justify inequality: the effects of system threat on attraction to women who embody benevolent sexist ideals.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02040.x</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>GP Lau, AC Kay, SJ Spencer</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>19</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Lau</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>54</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Spencer</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>11032</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>54</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.98</v>
       </c>
       <c r="M55" t="n">
         <v>2.98</v>
       </c>
       <c r="N55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O55" t="n">
         <v>4</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>36</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>0.93</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>0.147</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>0.79</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -4959,165 +5123,171 @@
       <c r="W55" t="n">
         <v>0</v>
       </c>
+      <c r="X55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>121</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>A motion aftereffect from still photographs depicting motion</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02080.x</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>J Winawer, AC Huk, L Boroditsky</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>19</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>3</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Winawer</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>2029</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Boroditsky</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>5834</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>47</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.54</v>
       </c>
       <c r="M56" t="n">
         <v>6.54</v>
       </c>
       <c r="N56" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O56" t="n">
         <v>3.5</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>3</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>29</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>3e-05</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>0.00471</v>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
       <c r="V56" t="n">
         <v>1</v>
       </c>
       <c r="W56" t="n">
         <v>1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>123</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>The threat of appearing prejudiced and race-based attentional biases.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02052.x</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>JA Richeson, S Trawalter</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>19</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4539</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>4539</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>75</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.42</v>
       </c>
       <c r="M57" t="n">
         <v>4.42</v>
       </c>
       <c r="N57" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O57" t="n">
         <v>4</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>3.33</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>28</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>0.92</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>0.8</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>0.89</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5125,580 +5295,601 @@
       <c r="W57" t="n">
         <v>0</v>
       </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>126</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Adaptive memory: The comparative value of survival processing.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02064.x</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>JS Nairne, JN Pandeirada, SR Thompson</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>19</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>4482</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>4482</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>191</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.43</v>
       </c>
       <c r="M58" t="n">
         <v>4.43</v>
       </c>
       <c r="N58" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O58" t="n">
         <v>2.25</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>3.25</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>24</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
         <v>0.2</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>0.007</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U58" t="n">
-        <v>1</v>
-      </c>
       <c r="V58" t="n">
         <v>1</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>127</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Is happiness having what you want, wanting what you have, or both?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02095.x</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>JT Larsen, AR McKibban</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>19</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>5016</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>5016</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>22</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.88</v>
       </c>
       <c r="M59" t="n">
         <v>2.88</v>
       </c>
       <c r="N59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O59" t="n">
         <v>2.67</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>4</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>119</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>0.92</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>0.21</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>0.001</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="n">
-        <v>1</v>
-      </c>
       <c r="W59" t="n">
         <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>128</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Implicit attitude generalization occurs immediately; explicit attitude generalization takes time</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02076.x</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>KA Ranganath, BA Nosek</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>19</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>2</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Ranganath</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>800</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Nosek</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>16030</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>65</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.36</v>
       </c>
       <c r="M60" t="n">
         <v>4.36</v>
       </c>
       <c r="N60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O60" t="n">
         <v>3.67</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>4.67</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>564</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>0.18</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>-0.004</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>0</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="n">
-        <v>1</v>
-      </c>
       <c r="W60" t="n">
         <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>129</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>The value of believing in free will: Encouraging a belief in determinism increases cheating.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02045.x</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>KD Vohs, JW Schooler</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>19</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>19845</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>19845</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>341</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.64</v>
       </c>
       <c r="M61" t="n">
         <v>3.64</v>
       </c>
       <c r="N61" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="O61" t="n">
         <v>3.75</v>
       </c>
       <c r="P61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q61" t="n">
         <v>30</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>0.005</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>0.88</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>0.44</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="V61" t="n">
-        <v>1</v>
-      </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>137</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>“In-Group Love” and “Out-Group Hate” as Motives for Individual Participation in Intergroup Conflict: A New Game Paradigm</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02100.x</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>N Halevy, G Bornstein, L Sagiv</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>19</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>3</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Halevy</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>783</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Sagiv</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>4290</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>126</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.48</v>
       </c>
       <c r="M62" t="n">
         <v>2.48</v>
       </c>
       <c r="N62" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O62" t="n">
         <v>2.75</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>4</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>240</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>0.59</v>
       </c>
-      <c r="S62" t="n">
+      <c r="T62" t="n">
         <v>0.0001</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U62" t="n">
-        <v>1</v>
-      </c>
       <c r="V62" t="n">
         <v>1</v>
       </c>
       <c r="W62" t="n">
         <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>138</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>A word-order constraint on phonological activation</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02070.x</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>N Janssen, FX Alario, A Caramazza</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>19</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>3</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>569</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>33703</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>15</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>1.9</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>6.74</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>5.33</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>5</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>15</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>0.0035</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>1.71</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>0.09</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U63" t="n">
-        <v>1</v>
-      </c>
       <c r="V63" t="n">
         <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>140</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The Best Men Are (Not Always) Already Taken: Female Preference for Single Versus Attached Males Depends on Conception Risk</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02060.x</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>P Bressan, D Stranieri</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>19</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>2</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1999</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>1999</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>20</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.97</v>
       </c>
       <c r="M64" t="n">
         <v>1.97</v>
       </c>
       <c r="N64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O64" t="n">
         <v>3.5</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>3.6</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>208</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>0.008</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.19</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>0.746</v>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -5706,165 +5897,171 @@
       <c r="W64" t="n">
         <v>0</v>
       </c>
+      <c r="X64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>141</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Sensitivity to object viewpoint and action instructions during search for targets in the lower visual field</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02044.x</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>S Forti, GW Humphreys</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>19</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>2</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Forti</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>134</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Humphreys</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>11039</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.7</v>
       </c>
       <c r="M65" t="n">
         <v>2.7</v>
       </c>
       <c r="N65" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="O65" t="n">
         <v>2.67</v>
       </c>
       <c r="P65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q65" t="n">
         <v>14</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>0.99</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>0.522</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>0.369</v>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
-        <v>1</v>
-      </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>142</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>With a clean conscience: Cleanliness reduces the severity of moral judgments.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02227.x</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>S Schnall, J Benton, S Harvey</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>19</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>3</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>1700</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>1700</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>246</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.03</v>
       </c>
       <c r="M66" t="n">
         <v>2.03</v>
       </c>
       <c r="N66" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O66" t="n">
         <v>5</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>4</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>43</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>0.97</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>0.16</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>0.97</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -5872,165 +6069,171 @@
       <c r="W66" t="n">
         <v>0</v>
       </c>
+      <c r="X66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>144</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Extremal edge: a powerful cue to depth perception and figure-ground organization</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02049.x</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>SE Palmer, T Ghose</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>19</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>10291</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>10291</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>38</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.61</v>
       </c>
       <c r="M67" t="n">
         <v>5.61</v>
       </c>
       <c r="N67" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O67" t="n">
         <v>2.67</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>3</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>8</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>0.0005</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>1.573</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>0.76</v>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="n">
-        <v>1</v>
-      </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>146</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Personality dominance and preferential use of the vertical dimension of space</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02093.x</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>SK Moeller, MD Robinson, DL Zabelina</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>19</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Moeller</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>230</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Robinson</t>
         </is>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>6629</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>33</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.34</v>
       </c>
       <c r="M68" t="n">
         <v>2.34</v>
       </c>
       <c r="N68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O68" t="n">
         <v>4.4</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>3</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>53</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>0.025</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>-0.31</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>0.78</v>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6038,254 +6241,266 @@
       <c r="W68" t="n">
         <v>0</v>
       </c>
+      <c r="X68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>149</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Conflict-triggered goal shielding: Response conflicts attenuate background monitoring for prospective memory cues.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02042.x</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>T Goschke, G Dreisbach</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>19</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>4017</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>4017</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>45</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.09</v>
       </c>
       <c r="M69" t="n">
         <v>2.09</v>
       </c>
       <c r="N69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O69" t="n">
         <v>3.5</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>3.25</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>40</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>0.927</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>0.14</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>3.5e-05</v>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U69" t="n">
-        <v>1</v>
-      </c>
       <c r="V69" t="n">
         <v>1</v>
       </c>
       <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>152</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Detecting the snake in the grass: attention to fear-relevant stimuli by adults and young children.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02081.x</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>V Lobue, JS DeLoache</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>19</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Lobue</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>563</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>DeLoache</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>8201</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>143</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.36</v>
       </c>
       <c r="M70" t="n">
         <v>4.36</v>
       </c>
       <c r="N70" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O70" t="n">
         <v>2</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>3.67</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>48</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>0.005</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>0.23</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>0.237</v>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="V70" t="n">
-        <v>1</v>
-      </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>158</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Head up, foot down: Object words orient attention to the objects' typical location.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02051.x</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Z Estes, M Verges, LW Barsalou</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>19</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>3</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Estes</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1188</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Barsalou</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>26096</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>91</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>2.67</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>3.65</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>5.2</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>4</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>18</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>0.97</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.7</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.24</v>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="U71" t="n">
-        <v>1</v>
-      </c>
       <c r="V71" t="n">
         <v>1</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X71" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,110 +374,115 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Study.Title.O</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Authors.O</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Volume.O</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Number.of.Authors.O</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>1st.author.O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Citation.Count.1st.author.O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Senior.author.O</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.senior.author.O</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Citation.count.paper.O</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.1st.author.O</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Institution.prestige.senior.author.O</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Surprising.result.O</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Exciting.result.O</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>N.O</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Reported.P.value.O</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Effect.size.O</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>P.value.R</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Direction.R</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>O.within.CI.R</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Meta.analysis.significant</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Fold_Id</t>
         </is>
@@ -490,83 +495,86 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Tracing attention and the activation flow in spoken word planning using eye movements.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.353</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>A Roelofs</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>34</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>8005</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Roelofs</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>8005</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>46</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.52</v>
       </c>
       <c r="N2" t="n">
         <v>2.52</v>
       </c>
       <c r="O2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.75</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.02</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.354</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.435</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -576,83 +584,86 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Now you see it, now you don't: repetition blindness for nonwords</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.146</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>AL Morris, ML Still</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>34</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>240</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Morris</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>240</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.27</v>
       </c>
       <c r="N3" t="n">
         <v>3.27</v>
       </c>
       <c r="O3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.28</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>2.86</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>24</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.0025</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.374</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.269</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -662,83 +673,86 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Working memory costs of task switching.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.478</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>B Liefooghe, P Barrouillet, A Vandierendonck, V Camos</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Liefooghe</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1737</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Vandierendonck</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3191</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>55</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.57</v>
       </c>
       <c r="N4" t="n">
         <v>2.57</v>
       </c>
       <c r="O4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>25</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.025</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.181</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.229</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -748,83 +762,86 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Accelerated relearning after retrieval-induced forgetting: The benefit of being forgotten.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.230</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>BC Storm, EL Bjork, RA Bjork</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Storm</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>763</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Bjork</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>16509</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>39</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.16</v>
       </c>
       <c r="N5" t="n">
         <v>5.16</v>
       </c>
       <c r="O5" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>240</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.052</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -832,85 +849,88 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A single-system account of the relationship between priming, recognition, and fluency.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.97</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>CJ Berry, DR Shanks, RN Henson</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>34</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Berry</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>232</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Henson</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>22335</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>37</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4.13</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2.12</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>3.66</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>24</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.002</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.724</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.023</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -918,85 +938,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Modeling distributions of immediate memory effects: No strategies needed?</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.219</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CP Beaman, I Neath, AM Surprenant</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>34</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1024</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Beaman</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>12</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.22</v>
       </c>
       <c r="N7" t="n">
         <v>2.22</v>
       </c>
       <c r="O7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.33</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>100</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.025</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>1.02</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.314</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1004,85 +1027,88 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Stereotypes and retrieval-provoked illusory source recollections.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.460</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CS Dodson, J Darragh, A Williams</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>34</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1967</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Dodson</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1967</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>14</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4.36</v>
       </c>
       <c r="N8" t="n">
         <v>4.36</v>
       </c>
       <c r="O8" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>39</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.32</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.54</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1090,85 +1116,88 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Across-notation automatic numerical processing.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.430</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>D Ganor-Stern, J Tzelgov</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>34</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Ganor-Stern</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>486</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Tzelgov</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>3059</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>51</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.28</v>
       </c>
       <c r="N9" t="n">
         <v>1.28</v>
       </c>
       <c r="O9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>32</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.488</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.001</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1176,84 +1205,87 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Attractor dynamics and semantic neighborhood density: Processing is slowed by near neighbors and speeded by distant neighbors.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.65</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>D Mirman, JS Magnuson</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>34</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Mirman</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1002</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Magnuson</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>3289</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>56</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.16</v>
       </c>
       <c r="N10" t="n">
         <v>3.16</v>
       </c>
       <c r="O10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.7</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>3.2</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>22</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.452</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.008</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1262,85 +1294,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>The Stroop effect: Why proportion congruent has nothing to do with congruency and everything to do with contingency.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.514</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>JR Schmidt, D Besner</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>34</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Schmidt</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>409</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>11136</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>92</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.98</v>
       </c>
       <c r="N11" t="n">
         <v>2.98</v>
       </c>
       <c r="O11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>95</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.028</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.198</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.0001</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
       <c r="W11" t="n">
         <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1348,85 +1383,88 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>18</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>How to say no: Single-and dual-process theories of short-term recognition tested on negative probes.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.439</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>K Oberauer</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>34</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>5974</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Oberauer</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>5974</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>11</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.69</v>
       </c>
       <c r="N12" t="n">
         <v>2.69</v>
       </c>
       <c r="O12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.67</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>32</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.31</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1434,85 +1472,88 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Intentional forgetting is easier after two ""shots"" than one.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.408</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>L Sahakyan, PF Delaney, ER Waldum</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>34</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>791</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Sahakyan</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>299</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>21</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.84</v>
       </c>
       <c r="N13" t="n">
         <v>2.84</v>
       </c>
       <c r="O13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.17</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>3.67</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>96</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.025</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.05</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.84</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1520,85 +1561,88 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>22</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Priming addition facts with semantic relations.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.343</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>M Bassok, SF Pedigo, AT Oskarsson</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>34</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>5489</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Bassok</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>5489</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>50</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.04</v>
       </c>
       <c r="N14" t="n">
         <v>4.04</v>
       </c>
       <c r="O14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="P14" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>2.67</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>154</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.045</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1606,85 +1650,88 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>24</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Contextual effects on reading aloud: Evidence for pathway control.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.50</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>M Reynolds, D Besner</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>34</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Reynolds</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>462</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Besner</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>11136</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>16</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1.87</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>2.98</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>2.75</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>16</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.15</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.026</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.17</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V15" t="n">
-        <v>1</v>
-      </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1692,85 +1739,88 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>25</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>On the additive effects of stimulus quality and word frequency in lexical decision: Evidence for opposing interactive influences revealed by RT distributional analyses.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.3.495</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>MJ Yap, DA Balota, CS Tse, D Besner</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>34</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Yap</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2514</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Balota</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>16500</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>50</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.61</v>
       </c>
       <c r="N16" t="n">
         <v>3.61</v>
       </c>
       <c r="O16" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.5</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>2.33</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>32</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>0.03</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.143</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>0.001</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1778,85 +1828,88 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>26</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Semantic interference in a delayed naming task: Evidence for the response exclusion hypothesis.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.249</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>N Janssen, W Schirm, BZ Mahon, A Caramazza</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>34</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>567</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>25000</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>72</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6.74</v>
       </c>
       <c r="N17" t="n">
         <v>6.74</v>
       </c>
       <c r="O17" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.5</v>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
       <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>32</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.03</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.74</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0.33</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1864,85 +1917,88 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>27</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Multidimensional visual statistical learning.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.399</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>NB Turk-Browne, PJ Isola, BJ Scholl, TA Treat</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>34</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Turk-Brown</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1740</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Scholl</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>6204</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>61</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.56</v>
       </c>
       <c r="N18" t="n">
         <v>6.56</v>
       </c>
       <c r="O18" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.25</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>8</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.023</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.09</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.002</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V18" t="n">
-        <v>1</v>
-      </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1950,85 +2006,88 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>30</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Accounting for occurrences: A new view of the use of contingency information in causal judgment.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.204</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>PA White</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>34</v>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1472</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>1472</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>11</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.07</v>
       </c>
       <c r="N19" t="n">
         <v>3.07</v>
       </c>
       <c r="O19" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.5</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>2.33</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>37</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.427</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.002</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
       <c r="W19" t="n">
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2036,85 +2095,88 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>31</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Multiple roles for time in short-term memory: Evidence from serial recall of order and timing.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.128</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>S Farrell</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>34</v>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1830</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Farrell</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>1830</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>27</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.69</v>
       </c>
       <c r="N20" t="n">
         <v>2.69</v>
       </c>
       <c r="O20" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.5</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>40</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.001</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.6</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.044</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2122,85 +2184,88 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>An attention-based associative account of adjacent and nonadjacent dependency learning.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.1.80</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>S Pacton, P Perruchet</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>34</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Pacton</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1341</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Perruchet</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>5255</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>72</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>2.25</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>1.65</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>24</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.005</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.51</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.00048</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
       <c r="W21" t="n">
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2208,85 +2273,88 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>35</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Orienting attention in visual working memory reduces interference from memory probes.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>10.1037/0278-7393.34.2.369</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>T Makovski, R Sussman, YV Jiang</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>34</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Makovski</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>578</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Jiang</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>6598</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>116</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6.74</v>
       </c>
       <c r="N22" t="n">
         <v>6.74</v>
       </c>
       <c r="O22" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.67</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>12</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.025</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>0.3037</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>0.142</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V22" t="n">
-        <v>1</v>
-      </c>
       <c r="W22" t="n">
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2294,85 +2362,88 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>42</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Why do implicit and explicit attitude tests diverge? The role of structural fit.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.16</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>BK Payne, MA Burkley, MB Stokes</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>94</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>3452</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Payne</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>3452</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>165</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4.25</v>
       </c>
       <c r="N23" t="n">
         <v>4.25</v>
       </c>
       <c r="O23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>70</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.005</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>0.09</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>0.045</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2380,85 +2451,88 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>46</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Terror management and adults' attachment to their parents: The safe haven remains.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.696</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>CR Cox, J Arndt, T Pyszczynski, J Greenberg, A Abdollahi, S Solomon</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>94</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>6</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Cox</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1071</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Pyszcynski</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>22870</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>74</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.62</v>
       </c>
       <c r="N24" t="n">
         <v>2.62</v>
       </c>
       <c r="O24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.5</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>100</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>0.03</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>0.224</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>0.47</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2466,84 +2540,87 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>50</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Affective incoherence: When affective concepts and embodied reactions clash.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.560</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>DB Centerbar, S Schnall, GL Clore, ED Garvin</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>94</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Centerbar</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>671</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Clore</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>25989</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>35</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>2.91</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>4.36</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>3.12</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>133</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>0.01</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-0.04</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>0.322</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
       <c r="W25" t="n">
         <v>1</v>
       </c>
       <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2552,85 +2629,88 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>51</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Individual differences in the regulation of intergroup bias: The role of conflict monitoring and neural signals for control.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.60</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>DM Amodio, PG Devine, E Harmon-Jones</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>94</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Amodio</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>5439</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Harmon-Jones</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>12887</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>136</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>5.19</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>3.45</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>4.67</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>48</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.03</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.16</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>0.513</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2638,85 +2718,88 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>54</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>A social functional approach to emotions in bargaining: when communicating anger pays and when it backfires.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.600</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>E van Dijk, GA van Kleef, W Steinel, I van Beest</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>94</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>4910</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>van Dijk</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>4910</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>97</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.6</v>
       </c>
       <c r="N27" t="n">
         <v>2.6</v>
       </c>
       <c r="O27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>3.67</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>103</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.1433</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>0.796</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2724,85 +2807,88 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>56</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Walking on eggshells: How expressing relationship insecurities perpetuates them.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.420</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>EP Lemay, MS Clark</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>95</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Lemay</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>986</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Clark</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>12819</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>40</v>
-      </c>
-      <c r="M28" t="n">
-        <v>6.56</v>
       </c>
       <c r="N28" t="n">
         <v>6.56</v>
       </c>
       <c r="O28" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.33</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>2.67</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>186</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.025</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.028</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>0.54</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2810,85 +2896,88 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>59</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Poignancy: Mixed emotional experience in the face of meaningful endings.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.158</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>H Ersner-Hershfield, JA Mikels, SJ Sullivan, LL Carstensen</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>94</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Ersner-Hershfield</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>919</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Carstensen</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>21330</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>80</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6.54</v>
       </c>
       <c r="N29" t="n">
         <v>6.54</v>
       </c>
       <c r="O29" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>110</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.025</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.45</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2896,85 +2985,88 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>61</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1/f noise and effort on implicit measures of bias.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.48</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>J Correll</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>94</v>
       </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>2379</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Correll</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>2379</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>42</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4.71</v>
       </c>
       <c r="N30" t="n">
         <v>4.71</v>
       </c>
       <c r="O30" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="P30" t="n">
         <v>3.5</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>71</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.01</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.374</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2982,85 +3074,88 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>63</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Not so innocent: Does seeing one's own capacity for wrongdoing predict forgiveness?</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.495</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>JJ Exline, RF Baumeister, AL Zell, AJ Kraft, CV Witvliet</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>94</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>5</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Exline</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3624</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>84112</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>81</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>2.68</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>3.66</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>3.6</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>45</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.005</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.186</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>0.89</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -3068,85 +3163,88 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>65</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Why people are reluctant to tempt fate.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.293</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>JL Risen, T Gilovich</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>95</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Risen</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>795</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Gilovich</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>16229</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>59</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>4.71</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>5.56</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>4</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>5.33</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>122</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.025</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.035</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>0.961</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3154,85 +3252,88 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>68</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>On the relative independence of thinking biases and cognitive ability.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.672</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>KE Stanovich, RF West</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>94</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>44032</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Stanovich</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>44032</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>291</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.82</v>
       </c>
       <c r="N33" t="n">
         <v>3.82</v>
       </c>
       <c r="O33" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="P33" t="n">
         <v>2.71</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>375</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.493</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.332</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="n">
-        <v>1</v>
-      </c>
       <c r="X33" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3240,85 +3341,88 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>69</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Opening the mind to close it: Considering a message in light of important values increases message processing and later resistance to change.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.196</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>KL Blankenship, DT Wegener</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>94</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Blankenship</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>377</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Wegener</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>12699</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>37</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>2.46</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>4.43</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>2.32</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>3.18</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>261</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>0.002</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.042</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>0.49</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="n">
-        <v>1</v>
-      </c>
       <c r="X34" t="n">
         <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3326,85 +3430,88 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>78</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>A needs-based model of reconciliation: Satisfying the differential emotional needs of victim and perpetrator as a key to promoting reconciliation.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.116</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>N Shnabel, A Nadler</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>94</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Shnabel</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>506</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Nadler</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>4609</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>138</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2.95</v>
       </c>
       <c r="N35" t="n">
         <v>2.95</v>
       </c>
       <c r="O35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="P35" t="n">
         <v>2</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>94</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>0.025</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>0.235</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -3412,85 +3519,88 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>79</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>The face of success: inferences from chief executive officers' appearance predict company profits.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02054.x</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>NO Rule, N Ambady</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>95</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1545</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Ambady</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>12216</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>141</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.74</v>
       </c>
       <c r="N36" t="n">
         <v>3.74</v>
       </c>
       <c r="O36" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="P36" t="n">
         <v>3.75</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>4</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>50</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.025</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.3</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>0.08599999999999999</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V36" t="n">
-        <v>1</v>
-      </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -3498,85 +3608,88 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>80</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Selective exposure and information quantity: How different information quantities moderate decision makers' preference for consistent and inconsistent information.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.94.2.231</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>P Fischer, S Schulz-Hardt, D Frey</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>94</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>3</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Fischer</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1539</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Frey</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>10023</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>65</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>2.54</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>2.53</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>3</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>52</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>0.001</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>1.1653</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>0.008</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V37" t="n">
-        <v>1</v>
-      </c>
       <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
         <v>0</v>
       </c>
-      <c r="X37" t="n">
-        <v>4</v>
+      <c r="Y37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -3584,85 +3697,88 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>82</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>The space between us: Stereotype threat and distance in interracial contexts.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.1.91</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>PA Goff, CM Steele, PG Davies</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>94</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>3</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Goff</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>1196</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>26670</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>165</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>4.08</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>6.54</v>
-      </c>
-      <c r="O38" t="n">
-        <v>4</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
       <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
         <v>55</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.005</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.16</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>0.928</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="n">
-        <v>1</v>
-      </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3670,85 +3786,88 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>84</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Sex differences in mate preferences revisited: Do people know what they initially desire in a romantic partner?</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.2.245</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>PW Eastwick, EJ Finkel</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>94</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Eastwick</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>1248</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Finkel</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>4655</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>202</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.42</v>
       </c>
       <c r="N39" t="n">
         <v>4.42</v>
       </c>
       <c r="O39" t="n">
-        <v>3.67</v>
+        <v>4.42</v>
       </c>
       <c r="P39" t="n">
         <v>3.67</v>
       </c>
       <c r="Q39" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R39" t="n">
         <v>163</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.48</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.04</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>0.87</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V39" t="n">
-        <v>1</v>
-      </c>
       <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
         <v>0</v>
       </c>
-      <c r="X39" t="n">
-        <v>4</v>
+      <c r="Y39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3756,85 +3875,88 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>88</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Balancing connectedness and self-protection goals in close relationships: A levels-of-processing perspective on risk regulation.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.3.429</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>SL Murray, JL Derrick, S Leder, JG Holmes</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>94</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>4</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Murray</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>5349</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Holmes</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>11286</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>117</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>2.84</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>2.98</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>1.4</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>91</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.005</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>0.265</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3842,85 +3964,88 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>89</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Self-handicapping, excuse making, and counterfactual thinking: Consequences for self-esteem and future motivation.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.95.2.274</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>SM McCrea</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>95</v>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>828</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>McCrea</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>828</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>51</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.09</v>
       </c>
       <c r="N41" t="n">
         <v>2.09</v>
       </c>
       <c r="O41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P41" t="n">
         <v>2</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>28</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.025</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.736</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>0.01175</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V41" t="n">
-        <v>1</v>
-      </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3928,85 +4053,88 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>92</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Social identity contingencies: How diversity cues signal threat or safety for African Americans in mainstream institutions.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>10.1037/0022-3514.94.4.615</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>V Purdie-Vaughns, CM Steele, PG Davies, R Ditlmann, JR Crosby</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>94</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>5</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Purdie-Vaughns</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>2400</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Steele</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>26670</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>240</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>6.56</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>6.54</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>2.6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>90</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>0.001</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>0.1431</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>0.154</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -4014,85 +4142,88 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>101</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>More than meets the eye: the role of language in binding and maintaining feature conjunctions.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02066.x</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>B Dessalegn, B Landau</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>19</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Dessalegn</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>190</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Landau</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>6864</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>52</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5.29</v>
       </c>
       <c r="N43" t="n">
         <v>5.29</v>
       </c>
       <c r="O43" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="P43" t="n">
         <v>2</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>36</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.025</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.82</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>0.132</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4100,85 +4231,88 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>102</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Nonconscious goal pursuit in novel environments: The case of implicit learning.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02078.x</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>B Eitam, RR Hassin, Y Schul</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>19</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Eitam</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>206</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Hassin</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>2448</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>66</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.48</v>
       </c>
       <c r="N44" t="n">
         <v>2.48</v>
       </c>
       <c r="O44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P44" t="n">
         <v>4.33</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>86</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.92</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>0.45</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>0.189</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="V44" t="n">
-        <v>1</v>
-      </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -4186,85 +4320,88 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>105</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Perceptual mechanisms that characterize gender differences in decoding women's sexual intent</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02092.x</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>C Farris, TA Treat, RJ Viken, RM McFall</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Farris</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>378</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>McFall</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>5836</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>37</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3.53</v>
       </c>
       <c r="N45" t="n">
         <v>3.53</v>
       </c>
       <c r="O45" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="P45" t="n">
         <v>2.8</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>3.2</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>280</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>0.326</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>0.28</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
       <c r="X45" t="n">
         <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4272,85 +4409,88 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>106</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Precision of the anchor influences the amount of adjustment.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02057.x</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>C Janiszewski, D Uy</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>19</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>6591</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Janiszewski</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>6591</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>53</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.4</v>
       </c>
       <c r="N46" t="n">
         <v>3.4</v>
       </c>
       <c r="O46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P46" t="n">
         <v>2</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>59</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.947</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>0.02</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>0.014</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V46" t="n">
-        <v>1</v>
-      </c>
       <c r="W46" t="n">
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4358,85 +4498,88 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>107</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Action dynamics reveal parallel competition in decision making</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02041.x</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>C McKinstry, R Dale, MJ Spivey</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>19</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>3</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>McKinstry</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>233</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Spivey</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>8475</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>103</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>2.39</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>5.56</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>3.6</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>3.2</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>141</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>0.025</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>-0.7</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>0.01</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V47" t="n">
-        <v>1</v>
-      </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -4444,85 +4587,88 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>108</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Prescribed optimism: Is it right to be wrong about the future?</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02089.x</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>DA Armor, C Massey, AM Sackett</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>19</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Armor</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>2061</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Massey</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>250</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>32</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>3.02</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>6.56</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>2.2</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>3</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>125</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>1.485</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>0.93</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>1e-12</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="n">
-        <v>1</v>
-      </c>
       <c r="X48" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -4530,85 +4676,88 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>109</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Age-related changes in the episodic simulation of future events</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02043.x</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>DR Addis, AT Wong, DL Schacter</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>19</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>3</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Addis</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>6138</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Schacter</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>64583</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>248</v>
-      </c>
-      <c r="M49" t="n">
-        <v>6.74</v>
       </c>
       <c r="N49" t="n">
         <v>6.74</v>
       </c>
       <c r="O49" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="P49" t="n">
         <v>2.8</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>32</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>0.99</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>0.326</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>0.0001</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V49" t="n">
-        <v>1</v>
-      </c>
       <c r="W49" t="n">
         <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -4616,85 +4765,88 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>110</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Preschoolers' perspective taking in word learning: do they blindly follow eye gaze?</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02069.x</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>E Nurmsoo, P Bloom</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>19</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Nurmsoo</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>271</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Bloom</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>15271</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>22</v>
-      </c>
-      <c r="M50" t="n">
-        <v>6.56</v>
       </c>
       <c r="N50" t="n">
         <v>6.56</v>
       </c>
       <c r="O50" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="P50" t="n">
         <v>2.8</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>32</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>0.97</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>0.571</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>0.197</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="n">
-        <v>1</v>
-      </c>
       <c r="X50" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4702,85 +4854,88 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>111</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Measuring the crowd within: Probabilistic representations within individuals.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02136.x</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>E Vul, H Pashler</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>19</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>2785</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Pashler</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>17561</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>122</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>6.42</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>4.08</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>2.67</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>173</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>0.005</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>0.47</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>0.001</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V51" t="n">
-        <v>1</v>
-      </c>
       <c r="W51" t="n">
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4788,85 +4943,88 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>113</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Toward a physiology of dual-process reasoning and judgment: lemonade, willpower, and expensive rule-based analysis.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02077.x</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>EJ Masicampo, RF Baumeister</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>19</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Masicampo</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>983</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Baumeister</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>84112</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>202</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3.66</v>
       </c>
       <c r="N52" t="n">
         <v>3.66</v>
       </c>
       <c r="O52" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="P52" t="n">
         <v>4.5</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>115</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0.92</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>0.045</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>0.539</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4874,85 +5032,88 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>115</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Errors Are Aversive: Defensive Motivation and the Error-Related Negativity</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02053.x</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>G Hajcak, D Foti</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>19</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>8843</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Hajcak</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>8843</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>172</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.85</v>
       </c>
       <c r="N53" t="n">
         <v>2.85</v>
       </c>
       <c r="O53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="P53" t="n">
         <v>2.42</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>3.28</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>31</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.025</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.38</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>0.11</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -4960,85 +5121,88 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>117</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>The representation of simple ensemble visual features outside the focus of attention</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02098.x</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>GA Alvarez, A Oliva</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>19</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Alvarez</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>3554</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Oliva</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>11460</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>134</v>
-      </c>
-      <c r="M54" t="n">
-        <v>6.42</v>
       </c>
       <c r="N54" t="n">
         <v>6.42</v>
       </c>
       <c r="O54" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="P54" t="n">
         <v>3.17</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>8</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>0.028</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>0.976</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>0.0001</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
       <c r="X54" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -5046,85 +5210,88 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>119</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Loving those who justify inequality: the effects of system threat on attraction to women who embody benevolent sexist ideals.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02040.x</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>GP Lau, AC Kay, SJ Spencer</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>19</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Lau</t>
         </is>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>54</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Spencer</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>11032</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>54</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.98</v>
       </c>
       <c r="N55" t="n">
         <v>2.98</v>
       </c>
       <c r="O55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P55" t="n">
         <v>4</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>3</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>36</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>0.93</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>0.147</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>0.79</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -5132,84 +5299,87 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>121</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>A motion aftereffect from still photographs depicting motion</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02080.x</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>J Winawer, AC Huk, L Boroditsky</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>19</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Winawer</t>
         </is>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>2029</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Boroditsky</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>5834</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>47</v>
-      </c>
-      <c r="M56" t="n">
-        <v>6.54</v>
       </c>
       <c r="N56" t="n">
         <v>6.54</v>
       </c>
       <c r="O56" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="P56" t="n">
         <v>3.5</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>3</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>29</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>3e-05</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
         <v>0.00471</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
       <c r="W56" t="n">
         <v>1</v>
       </c>
       <c r="X56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5218,84 +5388,87 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>123</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>The threat of appearing prejudiced and race-based attentional biases.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02052.x</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>JA Richeson, S Trawalter</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>19</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>4539</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Richeson</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>4539</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>75</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4.42</v>
       </c>
       <c r="N57" t="n">
         <v>4.42</v>
       </c>
       <c r="O57" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="P57" t="n">
         <v>4</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>28</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>0.92</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>0.8</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>0.89</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,85 +5477,88 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>126</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Adaptive memory: The comparative value of survival processing.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02064.x</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>JS Nairne, JN Pandeirada, SR Thompson</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>19</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>3</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>4482</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Nairne</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>4482</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>191</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4.43</v>
       </c>
       <c r="N58" t="n">
         <v>4.43</v>
       </c>
       <c r="O58" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="P58" t="n">
         <v>2.25</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>24</v>
       </c>
-      <c r="R58" t="n">
-        <v>1</v>
-      </c>
       <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
         <v>0.2</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>0.007</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V58" t="n">
-        <v>1</v>
-      </c>
       <c r="W58" t="n">
         <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -5390,85 +5566,88 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>127</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Is happiness having what you want, wanting what you have, or both?</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02095.x</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>JT Larsen, AR McKibban</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>19</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>5016</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Larsen</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>5016</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>22</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.88</v>
       </c>
       <c r="N59" t="n">
         <v>2.88</v>
       </c>
       <c r="O59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P59" t="n">
         <v>2.67</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>4</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>119</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>0.92</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>0.21</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>0.001</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="n">
-        <v>1</v>
-      </c>
       <c r="X59" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5476,85 +5655,88 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>128</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Implicit attitude generalization occurs immediately; explicit attitude generalization takes time</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02076.x</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>KA Ranganath, BA Nosek</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>19</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Ranganath</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>800</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Nosek</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>16030</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>65</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4.36</v>
       </c>
       <c r="N60" t="n">
         <v>4.36</v>
       </c>
       <c r="O60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="P60" t="n">
         <v>3.67</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>4.67</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>564</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>0.18</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>-0.004</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>0</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="n">
-        <v>1</v>
-      </c>
       <c r="X60" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -5562,85 +5744,88 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>129</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>The value of believing in free will: Encouraging a belief in determinism increases cheating.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02045.x</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>KD Vohs, JW Schooler</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>19</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>19845</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Vohs</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>19845</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>341</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3.64</v>
       </c>
       <c r="N61" t="n">
         <v>3.64</v>
       </c>
       <c r="O61" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="P61" t="n">
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R61" t="n">
         <v>30</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>0.005</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>0.88</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>0.44</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="n">
-        <v>1</v>
-      </c>
       <c r="X61" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -5648,85 +5833,88 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>137</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>“In-Group Love” and “Out-Group Hate” as Motives for Individual Participation in Intergroup Conflict: A New Game Paradigm</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02100.x</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>N Halevy, G Bornstein, L Sagiv</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>19</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>3</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Halevy</t>
         </is>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>783</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Sagiv</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>4290</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>126</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2.48</v>
       </c>
       <c r="N62" t="n">
         <v>2.48</v>
       </c>
       <c r="O62" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P62" t="n">
         <v>2.75</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>4</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>240</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>0</v>
       </c>
-      <c r="S62" t="n">
+      <c r="T62" t="n">
         <v>0.59</v>
       </c>
-      <c r="T62" t="n">
+      <c r="U62" t="n">
         <v>0.0001</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V62" t="n">
-        <v>1</v>
-      </c>
       <c r="W62" t="n">
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -5734,85 +5922,88 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
         <v>138</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>A word-order constraint on phonological activation</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02070.x</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>N Janssen, FX Alario, A Caramazza</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>19</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Janssen</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>569</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Caramazza</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>33703</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>15</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1.9</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>6.74</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>5.33</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>5</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>15</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>0.0035</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>1.71</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>0.09</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V63" t="n">
-        <v>1</v>
-      </c>
       <c r="W63" t="n">
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5820,84 +6011,87 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
         <v>140</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>The Best Men Are (Not Always) Already Taken: Female Preference for Single Versus Attached Males Depends on Conception Risk</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02060.x</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>P Bressan, D Stranieri</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>19</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>1999</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Bressan</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>1999</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>20</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.97</v>
       </c>
       <c r="N64" t="n">
         <v>1.97</v>
       </c>
       <c r="O64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P64" t="n">
         <v>3.5</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>208</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.008</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>0.19</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>0.746</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5906,85 +6100,88 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
         <v>141</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Sensitivity to object viewpoint and action instructions during search for targets in the lower visual field</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02044.x</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>S Forti, GW Humphreys</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>19</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>2</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Forti</t>
         </is>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>134</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Humphreys</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>11039</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>7</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2.7</v>
       </c>
       <c r="N65" t="n">
         <v>2.7</v>
       </c>
       <c r="O65" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="P65" t="n">
         <v>2.67</v>
       </c>
       <c r="Q65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R65" t="n">
         <v>14</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>0.99</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>0.522</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>0.369</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="n">
-        <v>1</v>
-      </c>
       <c r="X65" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5992,84 +6189,87 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
         <v>142</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>With a clean conscience: Cleanliness reduces the severity of moral judgments.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02227.x</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>S Schnall, J Benton, S Harvey</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>19</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>3</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>1700</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Schnall</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>1700</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>246</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.03</v>
       </c>
       <c r="N66" t="n">
         <v>2.03</v>
       </c>
       <c r="O66" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>4</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>43</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>0.97</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>0.16</v>
       </c>
-      <c r="T66" t="n">
+      <c r="U66" t="n">
         <v>0.97</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>same</t>
         </is>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6078,85 +6278,88 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>144</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Extremal edge: a powerful cue to depth perception and figure-ground organization</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02049.x</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>SE Palmer, T Ghose</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>19</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>10291</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Palmer</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>10291</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>38</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5.61</v>
       </c>
       <c r="N67" t="n">
         <v>5.61</v>
       </c>
       <c r="O67" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="P67" t="n">
         <v>2.67</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>3</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>8</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>0.0005</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>1.573</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>0.76</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="n">
-        <v>1</v>
-      </c>
       <c r="X67" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -6164,85 +6367,88 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
         <v>146</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Personality dominance and preferential use of the vertical dimension of space</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02093.x</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>SK Moeller, MD Robinson, DL Zabelina</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>19</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Moeller</t>
         </is>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>230</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Robinson</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>6629</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>33</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2.34</v>
       </c>
       <c r="N68" t="n">
         <v>2.34</v>
       </c>
       <c r="O68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="P68" t="n">
         <v>4.4</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>3</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>53</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>0.025</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>-0.31</v>
       </c>
-      <c r="T68" t="n">
+      <c r="U68" t="n">
         <v>0.78</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>opposite</t>
         </is>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -6250,85 +6456,88 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
         <v>149</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Conflict-triggered goal shielding: Response conflicts attenuate background monitoring for prospective memory cues.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02042.x</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>T Goschke, G Dreisbach</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>19</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>4017</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Goschke</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>4017</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>45</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2.09</v>
       </c>
       <c r="N69" t="n">
         <v>2.09</v>
       </c>
       <c r="O69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P69" t="n">
         <v>3.5</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>40</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>0.927</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>0.14</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>3.5e-05</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
       <c r="W69" t="n">
         <v>1</v>
       </c>
       <c r="X69" t="n">
         <v>1</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -6336,85 +6545,88 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
         <v>152</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Detecting the snake in the grass: attention to fear-relevant stimuli by adults and young children.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02081.x</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>V Lobue, JS DeLoache</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>19</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Lobue</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>563</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>DeLoache</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>8201</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>143</v>
-      </c>
-      <c r="M70" t="n">
-        <v>4.36</v>
       </c>
       <c r="N70" t="n">
         <v>4.36</v>
       </c>
       <c r="O70" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="P70" t="n">
         <v>2</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>3.67</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>48</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>0.005</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>0.23</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>0.237</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="n">
-        <v>1</v>
-      </c>
       <c r="X70" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6422,85 +6634,88 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
         <v>158</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Head up, foot down: Object words orient attention to the objects' typical location.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>10.1111/j.1467-9280.2008.02051.x</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Z Estes, M Verges, LW Barsalou</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>19</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>3</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Estes</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>1188</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Barsalou</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>26096</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>91</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>2.67</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>3.65</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>5.2</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>4</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>18</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.97</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.7</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>0.24</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>same</t>
         </is>
       </c>
-      <c r="V71" t="n">
-        <v>1</v>
-      </c>
       <c r="W71" t="n">
         <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
